--- a/excelTemplate/ExportShipmentListTemplate.xlsx
+++ b/excelTemplate/ExportShipmentListTemplate.xlsx
@@ -274,10 +274,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.bl_%&gt;consignee_name</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>C</t>
     </r>
@@ -329,6 +325,10 @@
   </si>
   <si>
     <t>TOTAL PREPAID</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bl_consignee_name%&gt;</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
@@ -3152,7 +3152,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3176,13 +3176,13 @@
         <v>29</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="44" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>16</v>
@@ -3316,7 +3316,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>41</v>
@@ -3349,7 +3349,7 @@
         <v>67</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>44</v>
@@ -3358,7 +3358,7 @@
         <v>68</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="S2" s="26" t="s">
         <v>43</v>
@@ -3443,7 +3443,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
